--- a/Post06/wb_alignment.xlsx
+++ b/Post06/wb_alignment.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-22510" yWindow="-110" windowWidth="22620" windowHeight="13500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6930" yWindow="2565" windowWidth="16065" windowHeight="11355" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,12 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[Blue][&gt;1]\﻿0;[Red][&lt;1]0.00"/>
-    <numFmt numFmtId="168" formatCode="yyyy&quot;년&quot;\ mm&quot;월&quot;\ dd&quot;일&quot;\ ddd\ \(aaa\)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="yyyy&quot;년&quot;\ mm&quot;월&quot;\ dd&quot;일&quot;\ ddd\ \(aaa\)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -32,11 +30,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="맑은 고딕"/>
@@ -54,7 +51,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -63,44 +67,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="통화 [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="백분율" xfId="3" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -249,6 +267,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -283,6 +302,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -306,7 +326,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -317,31 +336,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -363,7 +382,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -421,7 +440,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -434,13 +453,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -460,336 +478,347 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:M15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col width="25.375" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="10.125" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="13.625" bestFit="1" customWidth="1" style="10" min="1" max="1"/>
+    <col width="13.625" bestFit="1" customWidth="1" style="11" min="2" max="6"/>
+    <col width="13.625" bestFit="1" customWidth="1" style="10" min="7" max="8"/>
+    <col width="25.375" bestFit="1" customWidth="1" style="10" min="9" max="9"/>
+    <col width="10.125" bestFit="1" customWidth="1" style="10" min="10" max="10"/>
+    <col width="13.625" bestFit="1" customWidth="1" style="10" min="11" max="13"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="3" t="inlineStr">
+    <row r="1" ht="18.75" customHeight="1" s="10">
+      <c r="B1" s="11" t="n"/>
+      <c r="C1" s="11" t="n"/>
+      <c r="D1" s="11" t="n"/>
+      <c r="E1" s="11" t="n"/>
+      <c r="F1" s="11" t="n"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" s="10">
+      <c r="A2" s="12" t="n"/>
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>1단</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="13" t="inlineStr">
         <is>
           <t>2단</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="13" t="inlineStr">
         <is>
           <t>3단</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="13" t="inlineStr">
         <is>
           <t>4단</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="13" t="inlineStr">
         <is>
           <t>5단</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="3" t="n"/>
-      <c r="I2" s="3" t="n"/>
-      <c r="J2" s="3" t="n"/>
-      <c r="K2" s="3" t="n"/>
-      <c r="L2" s="3" t="n"/>
-      <c r="M2" s="3" t="n"/>
-    </row>
-    <row r="3">
-      <c r="B3" t="n">
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="12" t="n"/>
+      <c r="I2" s="12" t="n"/>
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="12" t="n"/>
+      <c r="L2" s="12" t="n"/>
+      <c r="M2" s="12" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="10">
+      <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="n"/>
-    </row>
-    <row r="4">
-      <c r="B4" t="n">
+      <c r="H3" s="5" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" s="10">
+      <c r="B4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="I4" s="3" t="n"/>
-      <c r="J4" s="3" t="n"/>
-      <c r="K4" s="3" t="n"/>
-      <c r="L4" s="3" t="n"/>
-      <c r="M4" s="3" t="n"/>
-    </row>
-    <row r="5">
-      <c r="B5" t="n">
+      <c r="I4" s="5" t="n"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="5" t="n"/>
+      <c r="L4" s="5" t="n"/>
+      <c r="M4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" s="10">
+      <c r="B5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="10" t="n"/>
-      <c r="J5" s="4" t="n"/>
-      <c r="K5" s="11" t="n"/>
-      <c r="L5" s="12" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" t="n">
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="4" t="n"/>
+      <c r="J5" s="14" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="15" t="n"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" s="10">
+      <c r="B6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="4" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" t="n">
+    <row r="7" ht="18.75" customHeight="1" s="10">
+      <c r="B7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="I7" s="4" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" t="n">
+      <c r="I7" s="14" t="n"/>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" s="10">
+      <c r="B8" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="H8" s="3" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" t="n">
+      <c r="H8" s="5" t="n"/>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" s="10">
+      <c r="B9" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="4" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" t="n">
+    <row r="10" ht="18.75" customHeight="1" s="10">
+      <c r="B10" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="H10" s="3" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" t="n">
+      <c r="H10" s="5" t="n"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" s="10">
+      <c r="B11" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="4" t="n">
         <v>36</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="I11" s="13" t="n"/>
-    </row>
-    <row r="12">
+      <c r="I11" s="16" t="n"/>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" s="10">
       <c r="A12" t="inlineStr">
         <is>
           <t>합계</t>
         </is>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <f>SUM(B3:B11)</f>
         <v/>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <f>SUM(C3:C11)</f>
         <v/>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <f>SUM(D3:D11)</f>
         <v/>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <f>SUM(E3:E11)</f>
         <v/>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <f>SUM(F3:F11)</f>
         <v/>
       </c>
-      <c r="I12" s="6" t="n"/>
-    </row>
-    <row r="13">
+      <c r="I12" s="9" t="n"/>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" s="10">
       <c r="A13" t="inlineStr">
         <is>
           <t>평균</t>
         </is>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <f>AVERAGE(B3:B11)</f>
         <v/>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <f>AVERAGE(C3:C11)</f>
         <v/>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <f>AVERAGE(D3:D11)</f>
         <v/>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <f>AVERAGE(E3:E11)</f>
         <v/>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <f>AVERAGE(F3:F11)</f>
         <v/>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="18.75" customHeight="1" s="10">
       <c r="A14" t="inlineStr">
         <is>
           <t>최댓값</t>
         </is>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <f>MAX(B3:B11)</f>
         <v/>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <f>MAX(C3:C11)</f>
         <v/>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <f>MAX(D3:D11)</f>
         <v/>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <f>MAX(E3:E11)</f>
         <v/>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <f>MAX(F3:F11)</f>
         <v/>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="18.75" customHeight="1" s="10">
       <c r="A15" t="inlineStr">
         <is>
           <t>최솟값</t>
         </is>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <f>MIN(B3:B11)</f>
         <v/>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <f>MIN(C3:C11)</f>
         <v/>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <f>MIN(D3:D11)</f>
         <v/>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <f>MIN(E3:E11)</f>
         <v/>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <f>MIN(F3:F11)</f>
         <v/>
       </c>
-      <c r="I15" s="14" t="n"/>
+      <c r="I15" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0"/>
 </worksheet>
 </file>
@@ -797,7 +826,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A1"/>
@@ -808,6 +837,6 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>